--- a/CP3L/DataPrepare.xlsx
+++ b/CP3L/DataPrepare.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoweichen/Desktop/STUDY/PHD/CommonCode/CP3L/testfile_copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoweichen/Desktop/STUDY/PHD/PnL-IOC/CP3L/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DC7614-75C0-0B49-ADF0-A3191ACFDB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D0F9AF-1865-274B-B4E6-D9AE585FE495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="460" windowWidth="24820" windowHeight="16640" activeTab="6" xr2:uid="{B02AEA4F-2E33-9F4B-9D80-7640D260CFB9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="853">
   <si>
     <t>00af93c06521455ea528309996881b8d_i1_5.jpg</t>
   </si>
@@ -226,9 +226,6 @@
     <t>7ed66f570e664d7fa5a01c2308d36991_i1_1.jpg</t>
   </si>
   <si>
-    <t>8a934837258740e686974eb02265db7f_i0_5.jpg</t>
-  </si>
-  <si>
     <t>8dba9ff900b14f9b84ead660f5f7f701_i2_5.jpg</t>
   </si>
   <si>
@@ -256,21 +253,9 @@
     <t>efaf68f3964f4cda858a98f265e6feb9_i2_5.jpg</t>
   </si>
   <si>
-    <t>e1ac54fab83242b889a95320811c68e5_i0_5.jpg</t>
-  </si>
-  <si>
     <t>d3038501401941f8afe4e9e2df5eda73_i0_3.jpg</t>
   </si>
   <si>
-    <t>cf1ab29600a546cf8c82484c06b60425_i1_5.jpg</t>
-  </si>
-  <si>
-    <t>cc1617446c6c4db9800195d4249b5ff2_i0_4.jpg</t>
-  </si>
-  <si>
-    <t>bb2332e3d7ad40a59ee5ad0eae108dec_i2_5.jpg</t>
-  </si>
-  <si>
     <t>ba3d3163aa4a4211a0bda0b7adf07b60_i1_2.jpg</t>
   </si>
   <si>
@@ -298,9 +283,6 @@
     <t>0.99957 -0.00940556 -0.0278287 11.2569                                                                                         -0.0278853 -0.00590852 -0.999594 5.36759                                                                                     0.00923701 0.999939 -0.00616706 4.80755                                                              0 0 0 1</t>
   </si>
   <si>
-    <t>2aa724f66e014fb1be4139ac9fb470fe_i1_2.jpg</t>
-  </si>
-  <si>
     <t>2aa724f66e014fb1be4139ac9fb470fe_i1_5.jpg</t>
   </si>
   <si>
@@ -808,9 +790,6 @@
     <t>9d733afabb2a4032a0ac602536bb649e_i0_2.jpg</t>
   </si>
   <si>
-    <t>9f6b4ff63cb04d92a06d25bc618de1a3_i2_2.jpg</t>
-  </si>
-  <si>
     <t>09f9715c7163456e9a934c5bb8a0e2c6_i0_4.jpg</t>
   </si>
   <si>
@@ -841,9 +820,6 @@
     <t>55f7034ab98a4a199a61a419816cce72_i2_0.jpg</t>
   </si>
   <si>
-    <t>57aa6e04ceb34e878125793bc9074a44_i2_5.jpg</t>
-  </si>
-  <si>
     <t>63ba96cfaf194d3385cab08574064139_i2_2.jpg</t>
   </si>
   <si>
@@ -1837,9 +1813,6 @@
     <t>0.91175 0.00505309 0.410713 7.59371 0.410701 0.00324651 -0.911764 6.9405 -0.00594035 0.999981 0.000883834 -1.8466 0 0 0 1</t>
   </si>
   <si>
-    <t>-0.354518 -0.0257054 0.934696 -0.309195 0.934818 0.0124609 0.354907 -2.25023 -0.02077 0.999592 0.0196116 1.77385 0 0 0 1</t>
-  </si>
-  <si>
     <t>0.972635 0.0118291 -0.23204 5.44178 -0.232131 0.00696827 -0.97266 -4.22138 -0.00988896 0.999906 0.00952416 4.93239 0 0 0 1</t>
   </si>
   <si>
@@ -1876,27 +1849,15 @@
     <t>-0.9998 0.0133183 -0.0148237 9.5196 -0.0144451 0.0281056 0.9995 8.68196 0.0137285 0.999516 -0.0279085 3.99187 0 0 0 1</t>
   </si>
   <si>
-    <t>0.955261 0.195479 0.221961 -0.034765 0.295737 -0.642132 -0.707254 -4.29802 0.00427444 0.741253 -0.671212 1.52547 0 0 0 1</t>
-  </si>
-  <si>
     <t>0.234682 0.0156869 0.971945 3.73498 0.972048 -0.0106019 -0.234536 6.16235 0.00662575 0.99982 -0.0177379 1.51178 0 0 0 1</t>
   </si>
   <si>
     <t>-0.0483702 0.666504 -0.743931 -3.87755 -0.998807 -0.027122 0.0406419 -4.14822 0.00691084 0.745008 0.667021 1.56694 0 0 0 1</t>
   </si>
   <si>
-    <t>-0.0840233 -0.669733 -0.737833 -0.318589 -0.996462 0.0552506 0.0633243 -2.71565 -0.00164461 0.740544 -0.672006 1.36902 0 0 0 1</t>
-  </si>
-  <si>
     <t>-0.985806 -0.117746 -0.119684 -2.34194 -0.167825 0.670718 0.722477 -4.23369 -0.00479486 0.732307 -0.680957 4.38017 0 0 0 1</t>
   </si>
   <si>
-    <t>-0.0980163 0.643313 0.759304 4.93891 0.994688 0.0392201 0.0951726 -2.79532 0.0314457 0.764599 -0.643739 1.38439 0 0 0 1</t>
-  </si>
-  <si>
-    <t>0.998334 0.0402468 -0.0413148 54.805 -0.0575947 0.657311 -0.751415 -9.25023 -0.00308516 0.752543 0.658534 1.50147 0 0 0 1</t>
-  </si>
-  <si>
     <t>0.99808 -0.00411992 -0.061776 -15.2618 -0.0617613 0.00352534 -0.998084 2.2265 0.00433014 0.999985 0.0032629 4.60108 0 0 0 1</t>
   </si>
   <si>
@@ -1918,15 +1879,9 @@
     <t>-0.234499 -0.0186263 -0.971938 -3.83526 -0.972081 0.0130166 0.234284 4.53545 0.00828734 0.999742 -0.0211583 1.55912 0 0 0 1</t>
   </si>
   <si>
-    <t>-0.0144756 -0.672351 0.740092 1.93758 0.99977 -0.0215376 -1.08029e-05 -4.17148 0.0159468 0.73992 0.672508 1.58183 0 0 0 1</t>
-  </si>
-  <si>
     <t>-0.980886 0.132021 0.142945 0.0220479 0.194539 0.649679 0.734896 8.96937 0.00415334 0.748657 -0.662944 1.53224 0 0 0 1</t>
   </si>
   <si>
-    <t>-0.0395279 0.668941 -0.742265 -1.79131 -0.999184 -0.0201368 0.0350611 -4.15305 0.00850665 0.743043 0.669191 1.57113 0 0 0 1</t>
-  </si>
-  <si>
     <t>-0.830388 0.379464 -0.407996 34.5256 -0.556906 -0.542152 0.629227 -0.694748 0.0175739 0.749719 0.661522 1.63375 0 0 0 1</t>
   </si>
   <si>
@@ -1936,9 +1891,6 @@
     <t>0.0731701 0.662133 -0.745806 2.47502 -0.997307 0.0447843 -0.0580849 3.83973 -0.00505973 0.748047 0.663627 -1.30452 0 0 0 1</t>
   </si>
   <si>
-    <t>-0.00591494 0.00109536 -0.999982 -5.14119 -0.999905 0.0124394 0.00592818 -1.57956 0.0124457 0.999922 0.00102149 1.47911 0 0 0 1</t>
-  </si>
-  <si>
     <t>-0.292142 0.00456501 -0.956363 -0.753706 -0.95597 0.0276413 0.292154 -5.62224 0.0277692 0.999607 -0.00371254 -1.65584 0 0 0 1</t>
   </si>
   <si>
@@ -2251,9 +2203,6 @@
     <t>171278a4cf64429d9ab2df21adcc60d8_i1_2.jpg</t>
   </si>
   <si>
-    <t>2335251f91a843c3ae05e1fec482438a_i1_4.jpg</t>
-  </si>
-  <si>
     <t>24d3a46b7f3845a997e375f08d1c279d_i1_1.jpg</t>
   </si>
   <si>
@@ -2287,9 +2236,6 @@
     <t>529ed2a6b09e4f52b3e861e1b6a46d3a_i1_0.jpg</t>
   </si>
   <si>
-    <t>53608606748f45c5a69723f062f1baa3_i1_3.jpg</t>
-  </si>
-  <si>
     <t>54e499c336a0490d8cf1684049f36040_i1_4.jpg</t>
   </si>
   <si>
@@ -2305,12 +2251,6 @@
     <t>6846c7228e654e1c91373852dfcc2c6c_i1_0.jpg</t>
   </si>
   <si>
-    <t>6d0335a316db43349ff3bb92939b8033_i1_4.jpg</t>
-  </si>
-  <si>
-    <t>71bf74df73cd4e24a191ef4f2338ca22_i1_2.jpg</t>
-  </si>
-  <si>
     <t>73c4028b050e4fc98125415d9cb5d194_i1_3.jpg</t>
   </si>
   <si>
@@ -2383,9 +2323,6 @@
     <t>b34af02ce9b642ebbd0c7e9e0ba3b553_i1_2.jpg</t>
   </si>
   <si>
-    <t>ba19aada2e9a47839c0355085f70f7c5_i1_2.jpg</t>
-  </si>
-  <si>
     <t>ba692fd9ec524282935a608d975374e3_i1_1.jpg</t>
   </si>
   <si>
@@ -2476,9 +2413,6 @@
     <t>0.37741 0.00640171 -0.926024 -0.369979 -0.92571 -0.02433 -0.37745 -25.442 -0.0249464 0.999683 -0.00325694 1.56189 0 0 0 1</t>
   </si>
   <si>
-    <t>-0.231089 -0.00035677 -0.972932 -16.3254 -0.972911 0.00670427 0.231082 -0.626703 0.00644035 0.999977 -0.00189644 -4.45846 0 0 0 1</t>
-  </si>
-  <si>
     <t>0.866833 0.00895959 -0.49852 -19.0978 -0.498601 0.0156621 -0.866691 -3.05495 4.23985e-05 0.999838 0.0180446 5.28976 0 0 0 1</t>
   </si>
   <si>
@@ -2512,9 +2446,6 @@
     <t>0.887007 -0.00685841 0.461705 -15.1525 0.461677 -0.0052925 -0.887032 -8.74986 0.00852728 0.999962 -0.00152846 1.37857 0 0 0 1</t>
   </si>
   <si>
-    <t>-0.467525 -0.00275799 0.883976 -7.95702 0.883976 -0.00426442 0.467512 2.6255 0.00248024 0.999987 0.00443168 -4.43797 0 0 0 1</t>
-  </si>
-  <si>
     <t>0.933523 -0.0138844 -0.35825 -4.64211 -0.358118 0.0111319 -0.933611 -5.40722 0.0169504 0.999842 0.00542066 1.55181 0 0 0 1</t>
   </si>
   <si>
@@ -2530,12 +2461,6 @@
     <t>-0.85974 0.00275797 -0.510723 -11.561 -0.510703 0.00578408 0.859737 3.22311 0.00532553 0.999979 -0.00356554 4.57768 0 0 0 1</t>
   </si>
   <si>
-    <t>-0.743192 -0.00808077 0.669029 10.9181 0.668391 0.0363056 0.742923 1.88723 -0.0302927 0.999308 -0.0215816 1.453 0 0 0 1</t>
-  </si>
-  <si>
-    <t>0.906931 0.00688335 0.421222 0.122562 0.421182 0.00662188 -0.906952 -0.00319673 -0.00903217 0.999954 0.00310641 1.57207 0 0 0 1</t>
-  </si>
-  <si>
     <t>-0.990896 0.0111072 -0.134163 5.02026 -0.134248 -0.00734245 0.99092 9.22095 0.0100215 0.999911 0.00876587 -1.81586 0 0 0 1</t>
   </si>
   <si>
@@ -2606,9 +2531,6 @@
   </si>
   <si>
     <t>0.960272 -0.00870611 0.278924 -0.0905727 0.278755 -0.0168277 -0.960214 -3.55265 0.0130537 0.99982 -0.0137334 1.49061 0 0 0 1</t>
-  </si>
-  <si>
-    <t>0.0297276 -0.0172025 0.99941 1.51623 0.999497 -0.0105639 -0.0299119 -0.0939342 0.0110721 0.999797 0.0168802 2.33178 0 0 0 1</t>
   </si>
   <si>
     <t>-0.764281 0.0159181 0.644688 -1.98939 0.644725 -0.00337535 0.764408 -1.56265 0.0143438 0.999868 -0.00768272 1.53074 0 0 0 1</t>
@@ -3106,7 +3028,7 @@
         <v>6.1794195165387498</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="40" x14ac:dyDescent="0.25">
@@ -3120,7 +3042,7 @@
         <v>4.2275016687369904</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="79" customHeight="1" x14ac:dyDescent="0.25">
@@ -3134,7 +3056,7 @@
         <v>4.89247393234493</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="107" customHeight="1" x14ac:dyDescent="0.25">
@@ -3148,7 +3070,7 @@
         <v>6.1232714084948503</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="97" customHeight="1" x14ac:dyDescent="0.25">
@@ -3162,7 +3084,7 @@
         <v>4.0857892620795901</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="40" x14ac:dyDescent="0.25">
@@ -3176,7 +3098,7 @@
         <v>8.2106516419695801</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="40" x14ac:dyDescent="0.25">
@@ -3190,7 +3112,7 @@
         <v>4.9302399999999897</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="40" x14ac:dyDescent="0.25">
@@ -3204,7 +3126,7 @@
         <v>3.6928313169170699</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40" x14ac:dyDescent="0.25">
@@ -3218,12 +3140,12 @@
         <v>3.2064591788576302</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B10" s="1">
         <v>3.4060152339935299</v>
@@ -3232,12 +3154,12 @@
         <v>2.8970201645849198</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B11" s="1">
         <v>3.1604522895812899</v>
@@ -3246,12 +3168,12 @@
         <v>4.26134016452548</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B12" s="1">
         <v>3.2156314849853498</v>
@@ -3260,12 +3182,12 @@
         <v>4.0625</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B13" s="1">
         <v>2.8749841880798299</v>
@@ -3274,12 +3196,12 @@
         <v>4.2101608134911999</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B14" s="1">
         <v>3.05774455826722</v>
@@ -3288,12 +3210,12 @@
         <v>4.36047823056124</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B15" s="1">
         <v>3.7308398056030199</v>
@@ -3302,12 +3224,12 @@
         <v>5.5936029403259102</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B16" s="1">
         <v>3.01621393203735</v>
@@ -3316,12 +3238,12 @@
         <v>4.2519268471352802</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B17" s="1">
         <v>2.8828535646070899</v>
@@ -3330,12 +3252,12 @@
         <v>3.0617798533022298</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B18" s="1">
         <v>2.9945166983255498</v>
@@ -3344,7 +3266,7 @@
         <v>4.17381418222267</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="40" x14ac:dyDescent="0.25">
@@ -3358,12 +3280,12 @@
         <v>8.2106516419695801</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B20" s="1">
         <v>2.54081523895263</v>
@@ -3372,12 +3294,12 @@
         <v>4.1696869999999997</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B21" s="1">
         <v>3.1598994636535598</v>
@@ -3386,12 +3308,12 @@
         <v>4.44503524900193</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B22" s="1">
         <v>3.09653963088989</v>
@@ -3400,12 +3322,12 @@
         <v>4.39868642232799</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B23" s="1">
         <v>3.5740818881988501</v>
@@ -3414,12 +3336,12 @@
         <v>3.6735713243558101</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B24" s="1">
         <v>2.98849792315686</v>
@@ -3428,12 +3350,12 @@
         <v>2.9526111214045798</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B25" s="1">
         <v>2.82902884483337</v>
@@ -3442,12 +3364,12 @@
         <v>4.5412883120410603</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B26" s="1">
         <v>3.5260705566406201</v>
@@ -3456,12 +3378,12 @@
         <v>7.5907657326659201</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B27" s="1">
         <v>3.0460671520233098</v>
@@ -3470,12 +3392,12 @@
         <v>3.3636989952</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B28" s="1">
         <v>3.50207368850708</v>
@@ -3484,12 +3406,12 @@
         <v>7.4132921261471099</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B29" s="1">
         <v>3.2185320854186998</v>
@@ -3498,12 +3420,12 @@
         <v>3.4235101378150401</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B30" s="1">
         <v>2.78378098280165</v>
@@ -3512,12 +3434,12 @@
         <v>3.9111460897016501</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B31" s="1">
         <v>2.8464845848083402</v>
@@ -3526,12 +3448,12 @@
         <v>4.5633211596800001</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B32" s="1">
         <v>3.8169906449751299</v>
@@ -3540,12 +3462,12 @@
         <v>5.9277826364894803</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B33" s="1">
         <v>3.1420368289947498</v>
@@ -3554,12 +3476,12 @@
         <v>3.95127451872</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="40" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B34" s="1">
         <v>2.5840671157836899</v>
@@ -3568,7 +3490,7 @@
         <v>3.2432637706668102</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -3594,10 +3516,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="80" x14ac:dyDescent="0.25">
@@ -3605,23 +3527,23 @@
         <v>35</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.25">
@@ -3629,15 +3551,15 @@
         <v>54</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="80" x14ac:dyDescent="0.25">
@@ -3645,7 +3567,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="80" x14ac:dyDescent="0.25">
@@ -3653,87 +3575,87 @@
         <v>59</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="100" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="80" x14ac:dyDescent="0.25">
@@ -3741,15 +3663,15 @@
         <v>54</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="80" x14ac:dyDescent="0.25">
@@ -3757,7 +3679,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="80" x14ac:dyDescent="0.25">
@@ -3765,271 +3687,271 @@
         <v>59</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="100" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="100" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -4058,7 +3980,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="80" x14ac:dyDescent="0.25">
@@ -4066,7 +3988,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="80" x14ac:dyDescent="0.25">
@@ -4074,7 +3996,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="80" x14ac:dyDescent="0.25">
@@ -4082,231 +4004,231 @@
         <v>46</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -4338,7 +4260,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="80" x14ac:dyDescent="0.25">
@@ -4346,7 +4268,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="80" x14ac:dyDescent="0.25">
@@ -4354,7 +4276,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="80" x14ac:dyDescent="0.25">
@@ -4362,7 +4284,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.25">
@@ -4370,143 +4292,143 @@
         <v>58</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="80" x14ac:dyDescent="0.25">
@@ -4514,191 +4436,191 @@
         <v>58</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="80" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -4727,7 +4649,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4735,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4743,7 +4665,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4751,7 +4673,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4759,7 +4681,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4767,7 +4689,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4775,7 +4697,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4783,7 +4705,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4791,7 +4713,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4799,7 +4721,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4807,7 +4729,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -4815,343 +4737,343 @@
         <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -5183,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5191,7 +5113,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5199,7 +5121,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5207,7 +5129,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E4" s="1">
         <v>1.49443673242282</v>
@@ -5224,7 +5146,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5232,7 +5154,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5240,7 +5162,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5248,7 +5170,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5256,7 +5178,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5264,7 +5186,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5272,7 +5194,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5280,7 +5202,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5288,7 +5210,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5296,7 +5218,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5304,7 +5226,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5312,7 +5234,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5320,7 +5242,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5328,7 +5250,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5336,7 +5258,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5344,79 +5266,79 @@
         <v>45</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -5424,631 +5346,631 @@
         <v>45</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -6062,10 +5984,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94721364-0D53-CE45-88C3-C1955872D36D}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -6076,9 +5998,9 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="146" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="89" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1">
         <v>1.6</v>
@@ -6090,12 +6012,12 @@
         <v>7.1494047619047603</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="B2" s="1">
         <v>1.6</v>
@@ -6107,12 +6029,12 @@
         <v>8.6980799999999991</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="B3" s="1">
         <v>1.6</v>
@@ -6124,12 +6046,12 @@
         <v>13.6339275742463</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="B4" s="1">
         <v>1.6</v>
@@ -6141,12 +6063,12 @@
         <v>10.408125557172299</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="B5" s="1">
         <v>1.6</v>
@@ -6158,12 +6080,12 @@
         <v>11.259884423662101</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="B6" s="1">
         <v>1.6</v>
@@ -6175,7 +6097,7 @@
         <v>7.5584028611183998</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="80" x14ac:dyDescent="0.25">
@@ -6192,12 +6114,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="B8" s="1">
         <v>1.6</v>
@@ -6209,12 +6131,12 @@
         <v>11.569125806719899</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="B9" s="1">
         <v>1.6</v>
@@ -6226,46 +6148,46 @@
         <v>11.569125806719899</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="B10" s="1">
         <v>1.6</v>
       </c>
       <c r="C10" s="1">
-        <v>4.7162496566772401</v>
+        <v>3.7361945629119799</v>
       </c>
       <c r="D10" s="1">
-        <v>14.7623354916413</v>
+        <v>21.255542071003401</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="B11" s="1">
         <v>1.6</v>
       </c>
       <c r="C11" s="1">
-        <v>3.7361945629119799</v>
+        <v>3.2587482643127399</v>
       </c>
       <c r="D11" s="1">
-        <v>21.255542071003401</v>
+        <v>11.473232939328099</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>738</v>
+      <c r="A12" s="2" t="s">
+        <v>722</v>
       </c>
       <c r="B12" s="1">
         <v>1.6</v>
@@ -6274,15 +6196,15 @@
         <v>3.2587482643127399</v>
       </c>
       <c r="D12" s="1">
-        <v>11.473232939328099</v>
+        <v>7.5584028611183998</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>739</v>
+      <c r="A13" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B13" s="1">
         <v>1.6</v>
@@ -6294,12 +6216,12 @@
         <v>7.5584028611183998</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>814</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1">
         <v>1.6</v>
@@ -6308,15 +6230,15 @@
         <v>4.2722567939758296</v>
       </c>
       <c r="D14" s="1">
-        <v>13.6339275742463</v>
+        <v>7.5584028611183998</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1">
         <v>1.6</v>
@@ -6325,32 +6247,32 @@
         <v>3.2587482643127399</v>
       </c>
       <c r="D15" s="1">
-        <v>7.5584028611183998</v>
+        <v>13.6339275742463</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1">
         <v>1.6</v>
       </c>
       <c r="C16" s="1">
-        <v>4.2722567939758296</v>
+        <v>3.2587482643127399</v>
       </c>
       <c r="D16" s="1">
         <v>7.5584028611183998</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>723</v>
       </c>
       <c r="B17" s="1">
         <v>1.6</v>
@@ -6359,32 +6281,32 @@
         <v>3.2587482643127399</v>
       </c>
       <c r="D17" s="1">
-        <v>13.6339275742463</v>
+        <v>7.5584028611183998</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>599</v>
+        <v>793</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>724</v>
       </c>
       <c r="B18" s="1">
         <v>1.6</v>
       </c>
       <c r="C18" s="1">
-        <v>3.2587482643127399</v>
+        <v>3.0224077271252101</v>
       </c>
       <c r="D18" s="1">
-        <v>7.5584028611183998</v>
+        <v>10.780165072819701</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>589</v>
+        <v>794</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="B19" s="1">
         <v>1.6</v>
@@ -6396,29 +6318,29 @@
         <v>7.5584028611183998</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="B20" s="1">
         <v>1.6</v>
       </c>
       <c r="C20" s="1">
-        <v>3.0224077271252101</v>
+        <v>2.8033542633056601</v>
       </c>
       <c r="D20" s="1">
-        <v>10.780165072819701</v>
+        <v>8.8209199999999992</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>742</v>
+        <v>133</v>
       </c>
       <c r="B21" s="1">
         <v>1.6</v>
@@ -6430,46 +6352,46 @@
         <v>7.5584028611183998</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>817</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>743</v>
+        <v>130</v>
       </c>
       <c r="B22" s="1">
         <v>1.6</v>
       </c>
       <c r="C22" s="1">
-        <v>2.8033542633056601</v>
+        <v>3.33722574106852</v>
       </c>
       <c r="D22" s="1">
-        <v>8.8209199999999992</v>
+        <v>17.418933824669502</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>818</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>1.6</v>
       </c>
       <c r="C23" s="1">
-        <v>3.2587482643127399</v>
+        <v>3.33722574106852</v>
       </c>
       <c r="D23" s="1">
         <v>7.5584028611183998</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>136</v>
+        <v>727</v>
       </c>
       <c r="B24" s="1">
         <v>1.6</v>
@@ -6478,15 +6400,15 @@
         <v>3.33722574106852</v>
       </c>
       <c r="D24" s="1">
-        <v>17.418933824669502</v>
+        <v>4.6148566877593602</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>601</v>
+        <v>797</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>728</v>
       </c>
       <c r="B25" s="1">
         <v>1.6</v>
@@ -6495,15 +6417,15 @@
         <v>3.33722574106852</v>
       </c>
       <c r="D25" s="1">
-        <v>7.5584028611183998</v>
+        <v>4.6148566877593602</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>590</v>
+        <v>798</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="B26" s="1">
         <v>1.6</v>
@@ -6515,12 +6437,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>745</v>
+        <v>171</v>
       </c>
       <c r="B27" s="1">
         <v>1.6</v>
@@ -6532,12 +6454,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>820</v>
+        <v>594</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>746</v>
+        <v>173</v>
       </c>
       <c r="B28" s="1">
         <v>1.6</v>
@@ -6549,12 +6471,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>821</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B29" s="1">
         <v>1.6</v>
@@ -6566,12 +6488,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>179</v>
+        <v>730</v>
       </c>
       <c r="B30" s="1">
         <v>1.6</v>
@@ -6583,12 +6505,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>604</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>180</v>
+      <c r="A31" s="2" t="s">
+        <v>731</v>
       </c>
       <c r="B31" s="1">
         <v>1.6</v>
@@ -6600,12 +6522,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>605</v>
+        <v>801</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>747</v>
+        <v>191</v>
       </c>
       <c r="B32" s="1">
         <v>1.6</v>
@@ -6617,12 +6539,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>822</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>748</v>
+        <v>202</v>
       </c>
       <c r="B33" s="1">
         <v>1.6</v>
@@ -6634,12 +6556,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>823</v>
+        <v>598</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>749</v>
+      <c r="A34" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B34" s="1">
         <v>1.6</v>
@@ -6651,12 +6573,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>824</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="B35" s="1">
         <v>1.6</v>
@@ -6668,12 +6590,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>208</v>
+        <v>732</v>
       </c>
       <c r="B36" s="1">
         <v>1.6</v>
@@ -6685,12 +6607,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>607</v>
+        <v>802</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1">
         <v>1.6</v>
@@ -6702,12 +6624,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1">
         <v>1.6</v>
@@ -6719,12 +6641,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="B39" s="1">
         <v>1.6</v>
@@ -6736,12 +6658,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>825</v>
+        <v>803</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>734</v>
       </c>
       <c r="B40" s="1">
         <v>1.6</v>
@@ -6753,12 +6675,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>593</v>
+        <v>804</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>735</v>
       </c>
       <c r="B41" s="1">
         <v>1.6</v>
@@ -6770,12 +6692,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>594</v>
+        <v>805</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>751</v>
+        <v>65</v>
       </c>
       <c r="B42" s="1">
         <v>1.6</v>
@@ -6787,12 +6709,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>826</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>752</v>
+        <v>55</v>
       </c>
       <c r="B43" s="1">
         <v>1.6</v>
@@ -6804,12 +6726,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>827</v>
+        <v>583</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="B44" s="1">
         <v>1.6</v>
@@ -6821,7 +6743,7 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>828</v>
+        <v>806</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="80" x14ac:dyDescent="0.25">
@@ -6838,12 +6760,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="B46" s="1">
         <v>1.6</v>
@@ -6855,12 +6777,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>738</v>
       </c>
       <c r="B47" s="1">
         <v>1.6</v>
@@ -6872,12 +6794,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>591</v>
+        <v>808</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="B48" s="1">
         <v>1.6</v>
@@ -6889,12 +6811,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="B49" s="1">
         <v>1.6</v>
@@ -6906,12 +6828,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B50" s="1">
         <v>1.6</v>
@@ -6923,12 +6845,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="B51" s="1">
         <v>1.6</v>
@@ -6940,12 +6862,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="B52" s="1">
         <v>1.6</v>
@@ -6957,12 +6879,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="B53" s="1">
         <v>1.6</v>
@@ -6974,12 +6896,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="B54" s="1">
         <v>1.6</v>
@@ -6991,12 +6913,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>745</v>
       </c>
       <c r="B55" s="1">
         <v>1.6</v>
@@ -7008,12 +6930,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>592</v>
+        <v>815</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="B56" s="1">
         <v>1.6</v>
@@ -7025,12 +6947,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>836</v>
+        <v>816</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="B57" s="1">
         <v>1.6</v>
@@ -7042,12 +6964,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>837</v>
+        <v>817</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
       <c r="B58" s="1">
         <v>1.6</v>
@@ -7059,12 +6981,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>838</v>
+        <v>818</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="B59" s="1">
         <v>1.6</v>
@@ -7076,12 +6998,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>839</v>
+        <v>819</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>765</v>
+      <c r="A60" s="2" t="s">
+        <v>750</v>
       </c>
       <c r="B60" s="1">
         <v>1.6</v>
@@ -7093,12 +7015,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>840</v>
+        <v>820</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="B61" s="1">
         <v>1.6</v>
@@ -7110,12 +7032,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>841</v>
+        <v>821</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>767</v>
+      <c r="A62" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B62" s="1">
         <v>1.6</v>
@@ -7127,12 +7049,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>842</v>
+        <v>589</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="B63" s="1">
         <v>1.6</v>
@@ -7144,12 +7066,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="B64" s="1">
         <v>1.6</v>
@@ -7161,12 +7083,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>770</v>
+      <c r="A65" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="B65" s="1">
         <v>1.6</v>
@@ -7178,12 +7100,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="B66" s="1">
         <v>1.6</v>
@@ -7195,12 +7117,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>68</v>
+      <c r="A67" s="1" t="s">
+        <v>756</v>
       </c>
       <c r="B67" s="1">
         <v>1.6</v>
@@ -7212,12 +7134,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>597</v>
+        <v>826</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="B68" s="1">
         <v>1.6</v>
@@ -7229,12 +7151,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="B69" s="1">
         <v>1.6</v>
@@ -7246,12 +7168,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="B70" s="1">
         <v>1.6</v>
@@ -7263,12 +7185,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="B71" s="1">
         <v>1.6</v>
@@ -7280,12 +7202,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="B72" s="1">
         <v>1.6</v>
@@ -7297,12 +7219,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="B73" s="1">
         <v>1.6</v>
@@ -7314,12 +7236,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="B74" s="1">
         <v>1.6</v>
@@ -7331,12 +7253,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="B75" s="1">
         <v>1.6</v>
@@ -7348,12 +7270,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="B76" s="1">
         <v>1.6</v>
@@ -7365,12 +7287,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="B77" s="1">
         <v>1.6</v>
@@ -7382,12 +7304,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="B78" s="1">
         <v>1.6</v>
@@ -7399,12 +7321,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="B79" s="1">
         <v>1.6</v>
@@ -7416,12 +7338,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="B80" s="1">
         <v>1.6</v>
@@ -7433,12 +7355,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="B81" s="1">
         <v>1.6</v>
@@ -7450,12 +7372,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="B82" s="1">
         <v>1.6</v>
@@ -7467,12 +7389,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="B83" s="1">
         <v>1.6</v>
@@ -7484,12 +7406,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="B84" s="1">
         <v>1.6</v>
@@ -7501,12 +7423,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="B85" s="1">
         <v>1.6</v>
@@ -7518,12 +7440,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="B86" s="1">
         <v>1.6</v>
@@ -7535,12 +7457,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="B87" s="1">
         <v>1.6</v>
@@ -7552,12 +7474,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="B88" s="1">
         <v>1.6</v>
@@ -7569,12 +7491,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="B89" s="1">
         <v>1.6</v>
@@ -7586,12 +7508,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>868</v>
+        <v>848</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="B90" s="1">
         <v>1.6</v>
@@ -7603,12 +7525,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="B91" s="1">
         <v>1.6</v>
@@ -7620,12 +7542,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="B92" s="1">
         <v>1.6</v>
@@ -7637,12 +7559,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="B93" s="1">
         <v>1.6</v>
@@ -7654,114 +7576,12 @@
         <v>4.6148566877593602</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="B94" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="C94" s="1">
-        <v>3.33722574106852</v>
-      </c>
-      <c r="D94" s="1">
-        <v>4.6148566877593602</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="B95" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="C95" s="1">
-        <v>3.33722574106852</v>
-      </c>
-      <c r="D95" s="1">
-        <v>4.6148566877593602</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="B96" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="C96" s="1">
-        <v>3.33722574106852</v>
-      </c>
-      <c r="D96" s="1">
-        <v>4.6148566877593602</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="B97" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="C97" s="1">
-        <v>3.33722574106852</v>
-      </c>
-      <c r="D97" s="1">
-        <v>4.6148566877593602</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="B98" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="C98" s="1">
-        <v>3.33722574106852</v>
-      </c>
-      <c r="D98" s="1">
-        <v>4.6148566877593602</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="B99" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="C99" s="1">
-        <v>3.33722574106852</v>
-      </c>
-      <c r="D99" s="1">
-        <v>4.6148566877593602</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>878</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D25">
-    <sortCondition ref="A1:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D23">
+    <sortCondition ref="A1:A23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7770,10 +7590,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85860C7C-5102-DA43-9C86-47B9AD90B481}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -7788,7 +7608,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B1" s="1">
         <v>11.09506148352</v>
@@ -7800,12 +7620,12 @@
         <v>1.6</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1">
         <v>3.0460671520233098</v>
@@ -7817,12 +7637,12 @@
         <v>1.6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1">
         <v>5.5743774999999998</v>
@@ -7834,12 +7654,12 @@
         <v>1.6</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B4" s="1">
         <v>5.5743774999999998</v>
@@ -7851,32 +7671,32 @@
         <v>1.6</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="9">
-        <v>11.09506148352</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="A5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.5743774999999998</v>
+      </c>
+      <c r="C5" s="1">
         <v>1.94341488</v>
       </c>
-      <c r="D5" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>627</v>
+      <c r="D5" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B6" s="1">
-        <v>5.5743774999999998</v>
+        <v>11.09506148352</v>
       </c>
       <c r="C6" s="1">
         <v>1.94341488</v>
@@ -7885,63 +7705,63 @@
         <v>1.6</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="B7" s="1">
-        <v>11.09506148352</v>
+        <v>3.0460671520233098</v>
       </c>
       <c r="C7" s="1">
-        <v>1.94341488</v>
+        <v>1.1262525000000001</v>
       </c>
       <c r="D7" s="1">
         <v>1.6</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B8" s="1">
         <v>3.0460671520233098</v>
       </c>
       <c r="C8" s="1">
-        <v>1.1262525000000001</v>
+        <v>1.94341488</v>
       </c>
       <c r="D8" s="1">
         <v>1.6</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>242</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1">
-        <v>3.0460671520233098</v>
+        <v>3.5515096187591499</v>
       </c>
       <c r="C9" s="1">
-        <v>1.94341488</v>
+        <v>1.9671474679272001</v>
       </c>
       <c r="D9" s="1">
         <v>1.6</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1">
         <v>3.5515096187591499</v>
@@ -7953,15 +7773,15 @@
         <v>1.6</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B11" s="9">
-        <v>11.09506148352</v>
+        <v>5.5743774999999998</v>
       </c>
       <c r="C11" s="9">
         <v>1.94341488</v>
@@ -7970,63 +7790,63 @@
         <v>1.6</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="9" customFormat="1" ht="80" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B12" s="9">
-        <v>11.09506148352</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1.94341488</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>625</v>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="80" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.0460671520233098</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.1262525000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1">
-        <v>3.5515096187591499</v>
+        <v>3.0460671520233098</v>
       </c>
       <c r="C13" s="1">
-        <v>1.9671474679272001</v>
+        <v>1.1262525000000001</v>
       </c>
       <c r="D13" s="1">
         <v>1.6</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="9">
-        <v>5.5743774999999998</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="A14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11.09506148352</v>
+      </c>
+      <c r="C14" s="1">
         <v>1.94341488</v>
       </c>
-      <c r="D14" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>619</v>
+      <c r="D14" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="B15" s="1">
         <v>3.0460671520233098</v>
@@ -8038,15 +7858,15 @@
         <v>1.6</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1">
-        <v>3.0460671520233098</v>
+        <v>5.5743774999999998</v>
       </c>
       <c r="C16" s="1">
         <v>1.1262525000000001</v>
@@ -8055,168 +7875,49 @@
         <v>1.6</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="80" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>709</v>
       </c>
       <c r="B17" s="1">
-        <v>11.09506148352</v>
+        <v>3.0460671520233098</v>
       </c>
       <c r="C17" s="1">
-        <v>1.94341488</v>
+        <v>1.1262525000000001</v>
       </c>
       <c r="D17" s="1">
         <v>1.6</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>617</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="9">
-        <v>18.285937579789799</v>
-      </c>
-      <c r="C18" s="9">
-        <v>2.1714129086060701</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="A18" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B18" s="1">
         <v>3.0460671520233098</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C18" s="1">
         <v>1.1262525000000001</v>
       </c>
-      <c r="D19" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="1">
-        <v>11.09506148352</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.94341488</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B21" s="1">
-        <v>3.0460671520233098</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.1262525000000001</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="9">
-        <v>18.285937579789799</v>
-      </c>
-      <c r="C22" s="9">
-        <v>2.1714129086060701</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="1">
-        <v>5.5743774999999998</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1.1262525000000001</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="B24" s="1">
-        <v>3.0460671520233098</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1.1262525000000001</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="80" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3.0460671520233098</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1.1262525000000001</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
+      <c r="D18" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F33">
-    <sortCondition ref="A20:A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F26">
+    <sortCondition ref="A14:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
